--- a/output/1Y_P43_KFSDIV.xlsx
+++ b/output/1Y_P43_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>15.3311</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>652.2689</v>
+        <v>650.9654</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>15.3637</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E3" s="1">
-        <v>652.2689</v>
+        <v>650.9654</v>
       </c>
       <c r="F3" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="H3" s="1">
-        <v>10021.264</v>
+        <v>9981.252200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10021.264</v>
+        <v>9981.252200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0021</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>14.6447</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E4" s="1">
-        <v>1303.1538</v>
+        <v>1300.548</v>
       </c>
       <c r="F4" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="H4" s="1">
-        <v>19084.2964</v>
+        <v>19008.0296</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19084.2964</v>
+        <v>19008.0296</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.3474</v>
+        <v>15.3781</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>587.042</v>
+        <v>585.8688</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9412.958000000001</v>
+        <v>-9414.1312</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0468</v>
+        <v>-0.0487</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>15.486</v>
       </c>
       <c r="C5" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D5" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E5" s="1">
-        <v>1985.9947</v>
+        <v>1982.0255</v>
       </c>
       <c r="F5" s="1">
-        <v>649.9565</v>
+        <v>648.6496</v>
       </c>
       <c r="H5" s="1">
-        <v>30755.1137</v>
+        <v>30632.2036</v>
       </c>
       <c r="I5" s="1">
-        <v>587.042</v>
+        <v>585.8688</v>
       </c>
       <c r="J5" s="1">
-        <v>31342.1557</v>
+        <v>31218.0725</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>15.1058</v>
+        <v>15.136</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10065.2269</v>
+        <v>-10065.0965</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0776</v>
+        <v>0.0762</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>16.1958</v>
       </c>
       <c r="C6" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D6" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E6" s="1">
-        <v>2635.9512</v>
+        <v>2630.6751</v>
       </c>
       <c r="F6" s="1">
-        <v>621.4714</v>
+        <v>620.2226000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>42691.0752</v>
+        <v>42520.6541</v>
       </c>
       <c r="I6" s="1">
-        <v>521.8151</v>
+        <v>520.7723</v>
       </c>
       <c r="J6" s="1">
-        <v>43212.8903</v>
+        <v>43041.4264</v>
       </c>
       <c r="K6" s="1">
-        <v>40065.2269</v>
+        <v>40065.0965</v>
       </c>
       <c r="L6" s="1">
-        <v>15.1995</v>
+        <v>15.23</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10065.2269</v>
+        <v>-10065.0965</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0453</v>
+        <v>0.0442</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>16.4264</v>
       </c>
       <c r="C7" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D7" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E7" s="1">
-        <v>3257.4226</v>
+        <v>3250.8977</v>
       </c>
       <c r="F7" s="1">
-        <v>612.747</v>
+        <v>611.5143</v>
       </c>
       <c r="H7" s="1">
-        <v>53507.7273</v>
+        <v>53293.9169</v>
       </c>
       <c r="I7" s="1">
-        <v>456.5882</v>
+        <v>455.6758</v>
       </c>
       <c r="J7" s="1">
-        <v>53964.3156</v>
+        <v>53749.5927</v>
       </c>
       <c r="K7" s="1">
-        <v>50130.4538</v>
+        <v>50130.1931</v>
       </c>
       <c r="L7" s="1">
-        <v>15.3896</v>
+        <v>15.4204</v>
       </c>
       <c r="M7" s="1">
         <v>0.75</v>
       </c>
       <c r="N7" s="1">
-        <v>1779.2671</v>
+        <v>1775.7057</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8285.959800000001</v>
+        <v>-8289.390799999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0141</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>17.107</v>
       </c>
       <c r="C8" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D8" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E8" s="1">
-        <v>3870.1696</v>
+        <v>3862.412</v>
       </c>
       <c r="F8" s="1">
-        <v>605.7036000000001</v>
+        <v>604.4493</v>
       </c>
       <c r="H8" s="1">
-        <v>66206.9917</v>
+        <v>65942.1871</v>
       </c>
       <c r="I8" s="1">
-        <v>2170.6284</v>
+        <v>2166.2849</v>
       </c>
       <c r="J8" s="1">
-        <v>68377.6201</v>
+        <v>68108.4721</v>
       </c>
       <c r="K8" s="1">
-        <v>60195.6807</v>
+        <v>60195.2896</v>
       </c>
       <c r="L8" s="1">
-        <v>15.5538</v>
+        <v>15.5849</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10361.7714</v>
+        <v>-10361.0475</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.06900000000000001</v>
+        <v>0.0684</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>16.8894</v>
       </c>
       <c r="C9" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D9" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E9" s="1">
-        <v>4475.8732</v>
+        <v>4466.8613</v>
       </c>
       <c r="F9" s="1">
-        <v>613.5074</v>
+        <v>612.2393</v>
       </c>
       <c r="H9" s="1">
-        <v>75594.3655</v>
+        <v>75291.62760000001</v>
       </c>
       <c r="I9" s="1">
-        <v>1808.857</v>
+        <v>1805.2374</v>
       </c>
       <c r="J9" s="1">
-        <v>77403.2225</v>
+        <v>77096.86500000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70557.45209999999</v>
+        <v>70556.3371</v>
       </c>
       <c r="L9" s="1">
-        <v>15.764</v>
+        <v>15.7955</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>3483.1527</v>
+        <v>3476.1708</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6878.6187</v>
+        <v>-6884.8767</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0124</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>16.4004</v>
       </c>
       <c r="C10" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D10" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E10" s="1">
-        <v>5089.3806</v>
+        <v>5079.1006</v>
       </c>
       <c r="F10" s="1">
-        <v>684.8955</v>
+        <v>683.374</v>
       </c>
       <c r="H10" s="1">
-        <v>83467.8774</v>
+        <v>83132.6866</v>
       </c>
       <c r="I10" s="1">
-        <v>4930.2383</v>
+        <v>4920.3607</v>
       </c>
       <c r="J10" s="1">
-        <v>88398.1156</v>
+        <v>88053.04730000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80919.22349999999</v>
+        <v>80917.3846</v>
       </c>
       <c r="L10" s="1">
-        <v>15.8996</v>
+        <v>15.9314</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11232.5596</v>
+        <v>-11230.0902</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0114</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>15.3877</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E11" s="1">
-        <v>5774.2761</v>
+        <v>5762.4746</v>
       </c>
       <c r="F11" s="1">
-        <v>729.97</v>
+        <v>728.3517000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>88852.8276</v>
+        <v>88493.7461</v>
       </c>
       <c r="I11" s="1">
-        <v>3697.6787</v>
+        <v>3690.2705</v>
       </c>
       <c r="J11" s="1">
-        <v>92550.50629999999</v>
+        <v>92184.0166</v>
       </c>
       <c r="K11" s="1">
-        <v>92151.7831</v>
+        <v>92147.4748</v>
       </c>
       <c r="L11" s="1">
-        <v>15.959</v>
+        <v>15.991</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11232.5596</v>
+        <v>-11230.0902</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0594</v>
+        <v>-0.0599</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>14.6367</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E12" s="1">
-        <v>6504.2461</v>
+        <v>6490.8263</v>
       </c>
       <c r="F12" s="1">
-        <v>767.4243</v>
+        <v>765.7228</v>
       </c>
       <c r="H12" s="1">
-        <v>95200.69839999999</v>
+        <v>94814.0955</v>
       </c>
       <c r="I12" s="1">
-        <v>2465.1191</v>
+        <v>2460.1804</v>
       </c>
       <c r="J12" s="1">
-        <v>97665.8175</v>
+        <v>97274.27589999999</v>
       </c>
       <c r="K12" s="1">
-        <v>103384.3426</v>
+        <v>103377.565</v>
       </c>
       <c r="L12" s="1">
-        <v>15.8949</v>
+        <v>15.9267</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11232.5596</v>
+        <v>-11230.0902</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0476</v>
+        <v>-0.048</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>13.0061</v>
       </c>
       <c r="C13" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D13" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E13" s="1">
-        <v>7271.6704</v>
+        <v>7256.549</v>
       </c>
       <c r="F13" s="1">
-        <v>863.6378</v>
+        <v>861.7187</v>
       </c>
       <c r="H13" s="1">
-        <v>94576.0722</v>
+        <v>94190.73209999999</v>
       </c>
       <c r="I13" s="1">
-        <v>1232.5596</v>
+        <v>1230.0902</v>
       </c>
       <c r="J13" s="1">
-        <v>95808.6318</v>
+        <v>95420.8223</v>
       </c>
       <c r="K13" s="1">
-        <v>114616.9022</v>
+        <v>114607.6551</v>
       </c>
       <c r="L13" s="1">
-        <v>15.7621</v>
+        <v>15.7937</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>2926.9107</v>
+        <v>2920.8718</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8305.648800000001</v>
+        <v>-8309.2184</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.1101</v>
+        <v>-0.1105</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>13.835</v>
       </c>
       <c r="C14" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D14" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E14" s="1">
-        <v>8135.3082</v>
+        <v>8118.2677</v>
       </c>
       <c r="F14" s="1">
-        <v>-8135.3082</v>
+        <v>-8118.2677</v>
       </c>
       <c r="H14" s="1">
-        <v>112551.9887</v>
+        <v>112091.3578</v>
       </c>
       <c r="I14" s="1">
-        <v>2926.9107</v>
+        <v>2920.8718</v>
       </c>
       <c r="J14" s="1">
-        <v>115478.8994</v>
+        <v>115012.2296</v>
       </c>
       <c r="K14" s="1">
-        <v>125849.4618</v>
+        <v>125837.7453</v>
       </c>
       <c r="L14" s="1">
-        <v>15.4695</v>
+        <v>15.5006</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112551.9887</v>
+        <v>112091.3578</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0914</v>
+        <v>0.091</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>15.3311</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>652.2689</v>
+        <v>650.9654</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>15.3637</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E3" s="1">
-        <v>652.2689</v>
+        <v>650.9654</v>
       </c>
       <c r="F3" s="1">
-        <v>649.5008</v>
+        <v>649.5826</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10021.264</v>
+        <v>9981.252200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10021.264</v>
+        <v>9981.252200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9978.736000000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0021</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>14.6447</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E4" s="1">
-        <v>1301.7698</v>
+        <v>1300.548</v>
       </c>
       <c r="F4" s="1">
-        <v>684.2929</v>
+        <v>681.4774</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19064.0275</v>
+        <v>19008.0296</v>
       </c>
       <c r="I4" s="1">
-        <v>21.264</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19085.2915</v>
+        <v>19008.0296</v>
       </c>
       <c r="K4" s="1">
-        <v>19978.736</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.3474</v>
+        <v>15.3781</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>587.042</v>
+        <v>585.8688</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9434.2219</v>
+        <v>-9414.1312</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0467</v>
+        <v>-0.0487</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>15.486</v>
       </c>
       <c r="C5" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D5" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E5" s="1">
-        <v>1986.0626</v>
+        <v>1982.0255</v>
       </c>
       <c r="F5" s="1">
-        <v>596.9155</v>
+        <v>606.1337</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30756.166</v>
+        <v>30632.2036</v>
       </c>
       <c r="I5" s="1">
-        <v>587.042</v>
+        <v>585.8688</v>
       </c>
       <c r="J5" s="1">
-        <v>31343.208</v>
+        <v>31218.0725</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>15.1053</v>
+        <v>15.136</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9243.834000000001</v>
+        <v>-9405.376700000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0776</v>
+        <v>0.0762</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>16.1958</v>
       </c>
       <c r="C6" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D6" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E6" s="1">
-        <v>2582.9782</v>
+        <v>2588.1592</v>
       </c>
       <c r="F6" s="1">
-        <v>504.261</v>
+        <v>505.2494</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>41833.1396</v>
+        <v>41833.452</v>
       </c>
       <c r="I6" s="1">
-        <v>1343.208</v>
+        <v>1180.4922</v>
       </c>
       <c r="J6" s="1">
-        <v>43176.3476</v>
+        <v>43013.9441</v>
       </c>
       <c r="K6" s="1">
-        <v>39243.834</v>
+        <v>39405.3767</v>
       </c>
       <c r="L6" s="1">
-        <v>15.1933</v>
+        <v>15.2253</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8166.9108</v>
+        <v>-8199.288200000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0443</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>16.4264</v>
       </c>
       <c r="C7" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D7" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E7" s="1">
-        <v>3087.2392</v>
+        <v>3093.4086</v>
       </c>
       <c r="F7" s="1">
-        <v>565.4175</v>
+        <v>566.5563</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50712.2261</v>
+        <v>50712.1027</v>
       </c>
       <c r="I7" s="1">
-        <v>3176.2972</v>
+        <v>2981.204</v>
       </c>
       <c r="J7" s="1">
-        <v>53888.5233</v>
+        <v>53693.3066</v>
       </c>
       <c r="K7" s="1">
-        <v>47410.7448</v>
+        <v>47604.6649</v>
       </c>
       <c r="L7" s="1">
-        <v>15.357</v>
+        <v>15.3891</v>
       </c>
       <c r="M7" s="1">
         <v>0.75</v>
       </c>
       <c r="N7" s="1">
-        <v>1743.5103</v>
+        <v>1747.0074</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7544.2636</v>
+        <v>-7578.1127</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0134</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>17.107</v>
       </c>
       <c r="C8" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D8" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E8" s="1">
-        <v>3652.6567</v>
+        <v>3659.9649</v>
       </c>
       <c r="F8" s="1">
-        <v>439.2355</v>
+        <v>440.1242</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>62485.9981</v>
+        <v>62485.8481</v>
       </c>
       <c r="I8" s="1">
-        <v>5632.0336</v>
+        <v>5403.0913</v>
       </c>
       <c r="J8" s="1">
-        <v>68118.03170000001</v>
+        <v>67888.9394</v>
       </c>
       <c r="K8" s="1">
-        <v>56698.5187</v>
+        <v>56929.785</v>
       </c>
       <c r="L8" s="1">
-        <v>15.5225</v>
+        <v>15.5547</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7514.0019</v>
+        <v>-7544.3004</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.06619999999999999</v>
+        <v>0.0659</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>16.8894</v>
       </c>
       <c r="C9" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D9" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E9" s="1">
-        <v>4091.8922</v>
+        <v>4100.089</v>
       </c>
       <c r="F9" s="1">
-        <v>644.8346</v>
+        <v>646.1081</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>69109.1951</v>
+        <v>69109.4607</v>
       </c>
       <c r="I9" s="1">
-        <v>8118.0317</v>
+        <v>7858.7909</v>
       </c>
       <c r="J9" s="1">
-        <v>77227.2268</v>
+        <v>76968.2516</v>
       </c>
       <c r="K9" s="1">
-        <v>64212.5206</v>
+        <v>64474.0854</v>
       </c>
       <c r="L9" s="1">
-        <v>15.6926</v>
+        <v>15.725</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>3287.391</v>
+        <v>3293.9684</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7603.4784</v>
+        <v>-7640.2479</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0114</v>
+        <v>-0.0118</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>16.4004</v>
       </c>
       <c r="C10" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D10" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E10" s="1">
-        <v>4736.7268</v>
+        <v>4746.1971</v>
       </c>
       <c r="F10" s="1">
-        <v>750.9442</v>
+        <v>752.471</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>77684.21430000001</v>
+        <v>77683.8558</v>
       </c>
       <c r="I10" s="1">
-        <v>10514.5533</v>
+        <v>10218.5431</v>
       </c>
       <c r="J10" s="1">
-        <v>88198.76760000001</v>
+        <v>87902.3989</v>
       </c>
       <c r="K10" s="1">
-        <v>75103.39</v>
+        <v>75408.30160000001</v>
       </c>
       <c r="L10" s="1">
-        <v>15.8555</v>
+        <v>15.8882</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12315.7857</v>
+        <v>-12365.5815</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0111</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>15.3877</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E11" s="1">
-        <v>5487.671</v>
+        <v>5498.6681</v>
       </c>
       <c r="F11" s="1">
-        <v>1011.026</v>
+        <v>1013.0628</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>84442.6355</v>
+        <v>84442.49619999999</v>
       </c>
       <c r="I11" s="1">
-        <v>8198.767599999999</v>
+        <v>7852.9615</v>
       </c>
       <c r="J11" s="1">
-        <v>92641.4031</v>
+        <v>92295.4577</v>
       </c>
       <c r="K11" s="1">
-        <v>87419.17570000001</v>
+        <v>87773.88310000001</v>
       </c>
       <c r="L11" s="1">
-        <v>15.9301</v>
+        <v>15.9628</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-15557.3645</v>
+        <v>-15619.9085</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0566</v>
+        <v>-0.0573</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>14.6367</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E12" s="1">
-        <v>6498.697</v>
+        <v>6511.7309</v>
       </c>
       <c r="F12" s="1">
-        <v>863.6785</v>
+        <v>834.1097</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>95119.4785</v>
+        <v>95119.4577</v>
       </c>
       <c r="I12" s="1">
-        <v>2641.4031</v>
+        <v>2233.053</v>
       </c>
       <c r="J12" s="1">
-        <v>97760.8817</v>
+        <v>97352.5107</v>
       </c>
       <c r="K12" s="1">
-        <v>102976.5402</v>
+        <v>103393.7916</v>
       </c>
       <c r="L12" s="1">
-        <v>15.8457</v>
+        <v>15.8781</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12641.4031</v>
+        <v>-12233.053</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0475</v>
+        <v>-0.0483</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>13.0061</v>
       </c>
       <c r="C13" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D13" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E13" s="1">
-        <v>7362.3755</v>
+        <v>7345.8406</v>
       </c>
       <c r="F13" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>95755.7922</v>
+        <v>95349.7455</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>95755.7922</v>
+        <v>95349.7455</v>
       </c>
       <c r="K13" s="1">
-        <v>115617.9433</v>
+        <v>115626.8447</v>
       </c>
       <c r="L13" s="1">
-        <v>15.7039</v>
+        <v>15.7405</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>2924.4137</v>
+        <v>2930.2789</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7075.5863</v>
+        <v>-7069.7211</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.1114</v>
+        <v>-0.1118</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>13.835</v>
       </c>
       <c r="C14" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D14" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E14" s="1">
-        <v>8131.2455</v>
+        <v>8113.1707</v>
       </c>
       <c r="F14" s="1">
-        <v>-8131.2455</v>
+        <v>-8113.1707</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112495.7816</v>
+        <v>112020.9824</v>
       </c>
       <c r="I14" s="1">
-        <v>2924.4137</v>
+        <v>2930.2789</v>
       </c>
       <c r="J14" s="1">
-        <v>115420.1952</v>
+        <v>114951.2613</v>
       </c>
       <c r="K14" s="1">
-        <v>125617.9433</v>
+        <v>125626.8447</v>
       </c>
       <c r="L14" s="1">
-        <v>15.4488</v>
+        <v>15.4843</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112495.7816</v>
+        <v>112020.9824</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0914</v>
+        <v>0.0911</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>15.3311</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>652.2689</v>
+        <v>650.9654</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>15.3637</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E3" s="1">
-        <v>652.2689</v>
+        <v>650.9654</v>
       </c>
       <c r="F3" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10021.264</v>
+        <v>9981.252200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10021.264</v>
+        <v>9981.252200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0021</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>14.6447</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E4" s="1">
-        <v>1303.1538</v>
+        <v>1300.548</v>
       </c>
       <c r="F4" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19084.2964</v>
+        <v>19008.0296</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19084.2964</v>
+        <v>19008.0296</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.3474</v>
+        <v>15.3781</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>587.042</v>
+        <v>585.8688</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9412.958000000001</v>
+        <v>-9414.1312</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0468</v>
+        <v>-0.0487</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>15.486</v>
       </c>
       <c r="C5" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D5" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E5" s="1">
-        <v>1985.9947</v>
+        <v>1982.0255</v>
       </c>
       <c r="F5" s="1">
-        <v>616.4204999999999</v>
+        <v>625.6097</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30755.1137</v>
+        <v>30632.2036</v>
       </c>
       <c r="I5" s="1">
-        <v>587.042</v>
+        <v>585.8688</v>
       </c>
       <c r="J5" s="1">
-        <v>31342.1557</v>
+        <v>31218.0725</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>15.1058</v>
+        <v>15.136</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9545.887500000001</v>
+        <v>-9707.5854</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0776</v>
+        <v>0.0762</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>16.1958</v>
       </c>
       <c r="C6" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D6" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E6" s="1">
-        <v>2602.4152</v>
+        <v>2607.6352</v>
       </c>
       <c r="F6" s="1">
-        <v>515.8511999999999</v>
+        <v>516.8626</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>42147.9353</v>
+        <v>42148.25</v>
       </c>
       <c r="I6" s="1">
-        <v>1041.1545</v>
+        <v>878.2834</v>
       </c>
       <c r="J6" s="1">
-        <v>43189.0898</v>
+        <v>43026.5334</v>
       </c>
       <c r="K6" s="1">
-        <v>39545.8875</v>
+        <v>39707.5854</v>
       </c>
       <c r="L6" s="1">
-        <v>15.1958</v>
+        <v>15.2274</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8354.622499999999</v>
+        <v>-8387.749</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0447</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>16.4264</v>
       </c>
       <c r="C7" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D7" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E7" s="1">
-        <v>3118.2663</v>
+        <v>3124.4977</v>
       </c>
       <c r="F7" s="1">
-        <v>580.3541</v>
+        <v>581.5229</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>51221.8903</v>
+        <v>51221.7656</v>
       </c>
       <c r="I7" s="1">
-        <v>2686.5319</v>
+        <v>2490.5344</v>
       </c>
       <c r="J7" s="1">
-        <v>53908.4222</v>
+        <v>53712.3001</v>
       </c>
       <c r="K7" s="1">
-        <v>47900.5101</v>
+        <v>48095.3344</v>
       </c>
       <c r="L7" s="1">
-        <v>15.3613</v>
+        <v>15.393</v>
       </c>
       <c r="M7" s="1">
         <v>0.75</v>
       </c>
       <c r="N7" s="1">
-        <v>1756.6302</v>
+        <v>1760.1537</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7776.4982</v>
+        <v>-7811.3055</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0135</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>17.107</v>
       </c>
       <c r="C8" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D8" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E8" s="1">
-        <v>3698.6204</v>
+        <v>3706.0206</v>
       </c>
       <c r="F8" s="1">
-        <v>455.1642</v>
+        <v>456.0849</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>63272.2999</v>
+        <v>63272.148</v>
       </c>
       <c r="I8" s="1">
-        <v>4910.0337</v>
+        <v>4679.229</v>
       </c>
       <c r="J8" s="1">
-        <v>68182.3336</v>
+        <v>67951.3769</v>
       </c>
       <c r="K8" s="1">
-        <v>57433.6386</v>
+        <v>57666.7936</v>
       </c>
       <c r="L8" s="1">
-        <v>15.5284</v>
+        <v>15.5603</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7786.494</v>
+        <v>-7817.8877</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0669</v>
+        <v>0.0665</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>16.8894</v>
       </c>
       <c r="C9" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D9" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E9" s="1">
-        <v>4153.7846</v>
+        <v>4162.1054</v>
       </c>
       <c r="F9" s="1">
-        <v>666.669</v>
+        <v>667.9859</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>70154.515</v>
+        <v>70154.7846</v>
       </c>
       <c r="I9" s="1">
-        <v>7123.5397</v>
+        <v>6861.3412</v>
       </c>
       <c r="J9" s="1">
-        <v>77278.0546</v>
+        <v>77016.12579999999</v>
       </c>
       <c r="K9" s="1">
-        <v>65220.1326</v>
+        <v>65484.6814</v>
       </c>
       <c r="L9" s="1">
-        <v>15.7014</v>
+        <v>15.7335</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>3328.7584</v>
+        <v>3335.4185</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7930.8812</v>
+        <v>-7969.0406</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0116</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>16.4004</v>
       </c>
       <c r="C10" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D10" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E10" s="1">
-        <v>4820.4537</v>
+        <v>4830.0914</v>
       </c>
       <c r="F10" s="1">
-        <v>778.2609</v>
+        <v>779.8428</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79057.36810000001</v>
+        <v>79057.0033</v>
       </c>
       <c r="I10" s="1">
-        <v>9192.6585</v>
+        <v>8892.3006</v>
       </c>
       <c r="J10" s="1">
-        <v>88250.0266</v>
+        <v>87949.3039</v>
       </c>
       <c r="K10" s="1">
-        <v>76479.7721</v>
+        <v>76789.14049999999</v>
       </c>
       <c r="L10" s="1">
-        <v>15.8657</v>
+        <v>15.8981</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12763.7902</v>
+        <v>-12815.3907</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0111</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>15.3877</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E11" s="1">
-        <v>5598.7146</v>
+        <v>5609.9342</v>
       </c>
       <c r="F11" s="1">
-        <v>1048.1699</v>
+        <v>1042.7026</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>86151.3401</v>
+        <v>86151.19779999999</v>
       </c>
       <c r="I11" s="1">
-        <v>6428.8683</v>
+        <v>6076.9099</v>
       </c>
       <c r="J11" s="1">
-        <v>92580.2083</v>
+        <v>92228.1078</v>
       </c>
       <c r="K11" s="1">
-        <v>89243.5624</v>
+        <v>89604.5312</v>
       </c>
       <c r="L11" s="1">
-        <v>15.94</v>
+        <v>15.9725</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-16128.924</v>
+        <v>-16076.9099</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0577</v>
+        <v>-0.0584</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>14.6367</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E12" s="1">
-        <v>6646.8845</v>
+        <v>6652.6367</v>
       </c>
       <c r="F12" s="1">
-        <v>703.7067</v>
+        <v>681.8492</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>97288.4538</v>
+        <v>97177.726</v>
       </c>
       <c r="I12" s="1">
-        <v>299.9443</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>97588.39810000001</v>
+        <v>97177.726</v>
       </c>
       <c r="K12" s="1">
-        <v>105372.4864</v>
+        <v>105681.4411</v>
       </c>
       <c r="L12" s="1">
-        <v>15.8529</v>
+        <v>15.8856</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10299.9443</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0487</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>13.0061</v>
       </c>
       <c r="C13" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D13" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E13" s="1">
-        <v>7350.5912</v>
+        <v>7334.4859</v>
       </c>
       <c r="F13" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>95602.5241</v>
+        <v>95202.3607</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>95602.5241</v>
+        <v>95202.3607</v>
       </c>
       <c r="K13" s="1">
-        <v>115672.4307</v>
+        <v>115681.4411</v>
       </c>
       <c r="L13" s="1">
-        <v>15.7365</v>
+        <v>15.7723</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>2991.098</v>
+        <v>2993.6865</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7008.902</v>
+        <v>-7006.3135</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.1114</v>
+        <v>-0.1117</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>13.835</v>
       </c>
       <c r="C14" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D14" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E14" s="1">
-        <v>8119.4612</v>
+        <v>8101.8161</v>
       </c>
       <c r="F14" s="1">
-        <v>-8119.4612</v>
+        <v>-8101.8161</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112332.7455</v>
+        <v>111864.2051</v>
       </c>
       <c r="I14" s="1">
-        <v>2991.098</v>
+        <v>2993.6865</v>
       </c>
       <c r="J14" s="1">
-        <v>115323.8435</v>
+        <v>114857.8916</v>
       </c>
       <c r="K14" s="1">
-        <v>125672.4307</v>
+        <v>125681.4411</v>
       </c>
       <c r="L14" s="1">
-        <v>15.4779</v>
+        <v>15.5127</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112332.7455</v>
+        <v>111864.2051</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0921</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2921,7 +2921,7 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
@@ -2992,16 +2992,16 @@
         <v>15.3311</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>652.2689</v>
+        <v>650.9654</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>15.3637</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E3" s="1">
-        <v>652.2689</v>
+        <v>650.9654</v>
       </c>
       <c r="F3" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10021.264</v>
+        <v>9981.252200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10021.264</v>
+        <v>9981.252200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0021</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>14.6447</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E4" s="1">
-        <v>1303.1538</v>
+        <v>1300.548</v>
       </c>
       <c r="F4" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19084.2964</v>
+        <v>19008.0296</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19084.2964</v>
+        <v>19008.0296</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.3474</v>
+        <v>15.3781</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>587.042</v>
+        <v>585.8688</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9412.958000000001</v>
+        <v>-9414.1312</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0468</v>
+        <v>-0.0487</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>15.486</v>
       </c>
       <c r="C5" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D5" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E5" s="1">
-        <v>1985.9947</v>
+        <v>1982.0255</v>
       </c>
       <c r="F5" s="1">
-        <v>635.9871000000001</v>
+        <v>645.2156</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30755.1137</v>
+        <v>30632.2036</v>
       </c>
       <c r="I5" s="1">
-        <v>587.042</v>
+        <v>585.8688</v>
       </c>
       <c r="J5" s="1">
-        <v>31342.1557</v>
+        <v>31218.0725</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>15.1058</v>
+        <v>15.136</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9848.8963</v>
+        <v>-10011.8098</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0776</v>
+        <v>0.0762</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>16.1958</v>
       </c>
       <c r="C6" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D6" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E6" s="1">
-        <v>2621.9818</v>
+        <v>2627.241</v>
       </c>
       <c r="F6" s="1">
-        <v>527.6227</v>
+        <v>528.6575</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>42464.8305</v>
+        <v>42465.1475</v>
       </c>
       <c r="I6" s="1">
-        <v>738.1457</v>
+        <v>574.0590999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>43202.9762</v>
+        <v>43039.2066</v>
       </c>
       <c r="K6" s="1">
-        <v>39848.8963</v>
+        <v>40011.8098</v>
       </c>
       <c r="L6" s="1">
-        <v>15.198</v>
+        <v>15.2296</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8545.2724</v>
+        <v>-8579.159600000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.045</v>
+        <v>0.0442</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>16.4264</v>
       </c>
       <c r="C7" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D7" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E7" s="1">
-        <v>3149.6045</v>
+        <v>3155.8985</v>
       </c>
       <c r="F7" s="1">
-        <v>595.5953</v>
+        <v>596.7945999999999</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51736.6639</v>
+        <v>51736.5379</v>
       </c>
       <c r="I7" s="1">
-        <v>2192.8734</v>
+        <v>1994.8995</v>
       </c>
       <c r="J7" s="1">
-        <v>53929.5372</v>
+        <v>53731.4375</v>
       </c>
       <c r="K7" s="1">
-        <v>48394.1687</v>
+        <v>48590.9693</v>
       </c>
       <c r="L7" s="1">
-        <v>15.3652</v>
+        <v>15.3969</v>
       </c>
       <c r="M7" s="1">
         <v>0.75</v>
       </c>
       <c r="N7" s="1">
-        <v>1769.8377</v>
+        <v>1773.3877</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8013.649</v>
+        <v>-8049.4344</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0137</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>17.107</v>
       </c>
       <c r="C8" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D8" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E8" s="1">
-        <v>3745.1998</v>
+        <v>3752.6932</v>
       </c>
       <c r="F8" s="1">
-        <v>471.5157</v>
+        <v>472.4692</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>64069.1336</v>
+        <v>64068.9798</v>
       </c>
       <c r="I8" s="1">
-        <v>4179.2243</v>
+        <v>3945.4651</v>
       </c>
       <c r="J8" s="1">
-        <v>68248.3579</v>
+        <v>68014.4449</v>
       </c>
       <c r="K8" s="1">
-        <v>58177.6554</v>
+        <v>58413.7914</v>
       </c>
       <c r="L8" s="1">
-        <v>15.5339</v>
+        <v>15.5658</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8066.2185</v>
+        <v>-8098.7365</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.06759999999999999</v>
+        <v>0.0672</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>16.8894</v>
       </c>
       <c r="C9" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D9" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E9" s="1">
-        <v>4216.7155</v>
+        <v>4225.1624</v>
       </c>
       <c r="F9" s="1">
-        <v>689.1541999999999</v>
+        <v>690.5158</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>71217.3731</v>
+        <v>71217.6468</v>
       </c>
       <c r="I9" s="1">
-        <v>6113.0058</v>
+        <v>5846.7287</v>
       </c>
       <c r="J9" s="1">
-        <v>77330.379</v>
+        <v>77064.37549999999</v>
       </c>
       <c r="K9" s="1">
-        <v>66243.87390000001</v>
+        <v>66512.5278</v>
       </c>
       <c r="L9" s="1">
-        <v>15.7098</v>
+        <v>15.742</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>3370.6799</v>
+        <v>3377.4238</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8268.7215</v>
+        <v>-8308.3138</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0117</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>16.4004</v>
       </c>
       <c r="C10" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D10" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E10" s="1">
-        <v>4905.8697</v>
+        <v>4915.6782</v>
       </c>
       <c r="F10" s="1">
-        <v>806.5076</v>
+        <v>808.1464999999999</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>80458.2259</v>
+        <v>80457.8547</v>
       </c>
       <c r="I10" s="1">
-        <v>7844.2843</v>
+        <v>7538.4149</v>
       </c>
       <c r="J10" s="1">
-        <v>88302.5102</v>
+        <v>87996.26949999999</v>
       </c>
       <c r="K10" s="1">
-        <v>77883.27529999999</v>
+        <v>78198.26549999999</v>
       </c>
       <c r="L10" s="1">
-        <v>15.8755</v>
+        <v>15.9079</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-13227.0468</v>
+        <v>-13280.5132</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0111</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>15.3877</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E11" s="1">
-        <v>5712.3773</v>
+        <v>5723.8247</v>
       </c>
       <c r="F11" s="1">
-        <v>949.9299999999999</v>
+        <v>924.7269</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>87900.34819999999</v>
+        <v>87900.2031</v>
       </c>
       <c r="I11" s="1">
-        <v>4617.2375</v>
+        <v>4257.9016</v>
       </c>
       <c r="J11" s="1">
-        <v>92517.5857</v>
+        <v>92158.1047</v>
       </c>
       <c r="K11" s="1">
-        <v>91110.3221</v>
+        <v>91478.7787</v>
       </c>
       <c r="L11" s="1">
-        <v>15.9496</v>
+        <v>15.9821</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-14617.2375</v>
+        <v>-14257.9016</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0588</v>
+        <v>-0.0596</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>14.6367</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E12" s="1">
-        <v>6662.3073</v>
+        <v>6648.5516</v>
       </c>
       <c r="F12" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>97514.19289999999</v>
+        <v>97118.0521</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>97514.19289999999</v>
+        <v>97118.0521</v>
       </c>
       <c r="K12" s="1">
-        <v>105727.5596</v>
+        <v>105736.6804</v>
       </c>
       <c r="L12" s="1">
-        <v>15.8695</v>
+        <v>15.9037</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0488</v>
+        <v>-0.0493</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>13.0061</v>
       </c>
       <c r="C13" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D13" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E13" s="1">
-        <v>7345.5214</v>
+        <v>7330.4007</v>
       </c>
       <c r="F13" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>95536.5858</v>
+        <v>95149.33470000001</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>95536.5858</v>
+        <v>95149.33470000001</v>
       </c>
       <c r="K13" s="1">
-        <v>115727.5596</v>
+        <v>115736.6804</v>
       </c>
       <c r="L13" s="1">
-        <v>15.7548</v>
+        <v>15.7886</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>2998.0383</v>
+        <v>2991.8482</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7001.9617</v>
+        <v>-7008.1518</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.1114</v>
+        <v>-0.1117</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>13.835</v>
       </c>
       <c r="C14" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D14" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E14" s="1">
-        <v>8114.3914</v>
+        <v>8097.7309</v>
       </c>
       <c r="F14" s="1">
-        <v>-8114.3914</v>
+        <v>-8097.7309</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112262.6048</v>
+        <v>111807.7997</v>
       </c>
       <c r="I14" s="1">
-        <v>2998.0383</v>
+        <v>2991.8482</v>
       </c>
       <c r="J14" s="1">
-        <v>115260.6431</v>
+        <v>114799.648</v>
       </c>
       <c r="K14" s="1">
-        <v>125727.5596</v>
+        <v>125736.6804</v>
       </c>
       <c r="L14" s="1">
-        <v>15.4944</v>
+        <v>15.5274</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112262.6048</v>
+        <v>111807.7997</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0921</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>15.3311</v>
       </c>
       <c r="C2" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D2" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>652.2689</v>
+        <v>650.9654</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>15.3637</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E3" s="1">
-        <v>652.2689</v>
+        <v>650.9654</v>
       </c>
       <c r="F3" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10021.264</v>
+        <v>9981.252200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10021.264</v>
+        <v>9981.252200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0021</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>14.6447</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E4" s="1">
-        <v>1303.1538</v>
+        <v>1300.548</v>
       </c>
       <c r="F4" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19084.2964</v>
+        <v>19008.0296</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19084.2964</v>
+        <v>19008.0296</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>15.3474</v>
+        <v>15.3781</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>587.042</v>
+        <v>585.8688</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9412.958000000001</v>
+        <v>-9414.1312</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0468</v>
+        <v>-0.0487</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>15.486</v>
       </c>
       <c r="C5" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D5" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E5" s="1">
-        <v>1985.9947</v>
+        <v>1982.0255</v>
       </c>
       <c r="F5" s="1">
-        <v>655.6838</v>
+        <v>664.9518</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30755.1137</v>
+        <v>30632.2036</v>
       </c>
       <c r="I5" s="1">
-        <v>587.042</v>
+        <v>585.8688</v>
       </c>
       <c r="J5" s="1">
-        <v>31342.1557</v>
+        <v>31218.0725</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>15.1058</v>
+        <v>15.136</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10153.92</v>
+        <v>-10318.0572</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0776</v>
+        <v>0.0762</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>16.1958</v>
       </c>
       <c r="C6" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D6" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E6" s="1">
-        <v>2641.6785</v>
+        <v>2646.9773</v>
       </c>
       <c r="F6" s="1">
-        <v>539.5776</v>
+        <v>540.6361000000001</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>42783.833</v>
+        <v>42784.1524</v>
       </c>
       <c r="I6" s="1">
-        <v>433.122</v>
+        <v>267.8117</v>
       </c>
       <c r="J6" s="1">
-        <v>43216.955</v>
+        <v>43051.9641</v>
       </c>
       <c r="K6" s="1">
-        <v>40153.92</v>
+        <v>40318.0572</v>
       </c>
       <c r="L6" s="1">
-        <v>15.2002</v>
+        <v>15.2317</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8738.8902</v>
+        <v>-8773.549999999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0453</v>
+        <v>0.0445</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>16.4264</v>
       </c>
       <c r="C7" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D7" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E7" s="1">
-        <v>3181.2561</v>
+        <v>3187.6133</v>
       </c>
       <c r="F7" s="1">
-        <v>611.1457</v>
+        <v>612.3763</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>52256.585</v>
+        <v>52256.4578</v>
       </c>
       <c r="I7" s="1">
-        <v>1694.2318</v>
+        <v>1494.2617</v>
       </c>
       <c r="J7" s="1">
-        <v>53950.8168</v>
+        <v>53750.7195</v>
       </c>
       <c r="K7" s="1">
-        <v>48892.8102</v>
+        <v>49091.6072</v>
       </c>
       <c r="L7" s="1">
-        <v>15.369</v>
+        <v>15.4007</v>
       </c>
       <c r="M7" s="1">
         <v>0.75</v>
       </c>
       <c r="N7" s="1">
-        <v>1783.133</v>
+        <v>1786.7097</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8255.7912</v>
+        <v>-8292.5749</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0138</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>17.107</v>
       </c>
       <c r="C8" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D8" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E8" s="1">
-        <v>3792.4018</v>
+        <v>3799.9896</v>
       </c>
       <c r="F8" s="1">
-        <v>488.2986</v>
+        <v>489.2859</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>64876.618</v>
+        <v>64876.4622</v>
       </c>
       <c r="I8" s="1">
-        <v>3438.4405</v>
+        <v>3201.6868</v>
       </c>
       <c r="J8" s="1">
-        <v>68315.0585</v>
+        <v>68078.149</v>
       </c>
       <c r="K8" s="1">
-        <v>58931.7345</v>
+        <v>59170.8917</v>
       </c>
       <c r="L8" s="1">
-        <v>15.5394</v>
+        <v>15.5713</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8353.324000000001</v>
+        <v>-8386.995800000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0682</v>
+        <v>0.0679</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>16.8894</v>
       </c>
       <c r="C9" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D9" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E9" s="1">
-        <v>4280.7004</v>
+        <v>4289.2755</v>
       </c>
       <c r="F9" s="1">
-        <v>712.3065</v>
+        <v>713.7141</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>72298.03350000001</v>
+        <v>72298.3113</v>
       </c>
       <c r="I9" s="1">
-        <v>5085.1166</v>
+        <v>4814.691</v>
       </c>
       <c r="J9" s="1">
-        <v>77383.14999999999</v>
+        <v>77113.00229999999</v>
       </c>
       <c r="K9" s="1">
-        <v>67285.0585</v>
+        <v>67557.8875</v>
       </c>
       <c r="L9" s="1">
-        <v>15.7182</v>
+        <v>15.7504</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>3413.1616</v>
+        <v>3419.9906</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8617.2672</v>
+        <v>-8658.3362</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0119</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>16.4004</v>
       </c>
       <c r="C10" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D10" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E10" s="1">
-        <v>4993.0069</v>
+        <v>5002.9896</v>
       </c>
       <c r="F10" s="1">
-        <v>835.7117</v>
+        <v>837.4096</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>81887.31</v>
+        <v>81886.9322</v>
       </c>
       <c r="I10" s="1">
-        <v>6467.8494</v>
+        <v>6156.3548</v>
       </c>
       <c r="J10" s="1">
-        <v>88355.1594</v>
+        <v>88043.28690000001</v>
       </c>
       <c r="K10" s="1">
-        <v>79315.48729999999</v>
+        <v>79636.2144</v>
       </c>
       <c r="L10" s="1">
-        <v>15.8853</v>
+        <v>15.9177</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-13706.0069</v>
+        <v>-13761.4026</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0111</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>15.3877</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E11" s="1">
-        <v>5828.7186</v>
+        <v>5840.3991</v>
       </c>
       <c r="F11" s="1">
-        <v>829.3535000000001</v>
+        <v>803.9013</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>89690.5736</v>
+        <v>89690.4255</v>
       </c>
       <c r="I11" s="1">
-        <v>2761.8424</v>
+        <v>2394.9522</v>
       </c>
       <c r="J11" s="1">
-        <v>92452.416</v>
+        <v>92085.3777</v>
       </c>
       <c r="K11" s="1">
-        <v>93021.4942</v>
+        <v>93397.617</v>
       </c>
       <c r="L11" s="1">
-        <v>15.9592</v>
+        <v>15.9916</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12761.8424</v>
+        <v>-12394.9522</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.06</v>
+        <v>-0.0608</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>14.6367</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E12" s="1">
-        <v>6658.0721</v>
+        <v>6644.3004</v>
       </c>
       <c r="F12" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>97452.20389999999</v>
+        <v>97055.95419999999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>97452.20389999999</v>
+        <v>97055.95419999999</v>
       </c>
       <c r="K12" s="1">
-        <v>105783.3367</v>
+        <v>105792.5691</v>
       </c>
       <c r="L12" s="1">
-        <v>15.888</v>
+        <v>15.9223</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0488</v>
+        <v>-0.0493</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>13.0061</v>
       </c>
       <c r="C13" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D13" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E13" s="1">
-        <v>7341.2862</v>
+        <v>7326.1496</v>
       </c>
       <c r="F13" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>95481.50260000001</v>
+        <v>95094.15459999999</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>95481.50260000001</v>
+        <v>95094.15459999999</v>
       </c>
       <c r="K13" s="1">
-        <v>115783.3367</v>
+        <v>115792.5691</v>
       </c>
       <c r="L13" s="1">
-        <v>15.7715</v>
+        <v>15.8054</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>2996.1324</v>
+        <v>2989.9352</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7003.8676</v>
+        <v>-7010.0648</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.1114</v>
+        <v>-0.1117</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>13.835</v>
       </c>
       <c r="C14" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D14" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E14" s="1">
-        <v>8110.1562</v>
+        <v>8093.4798</v>
       </c>
       <c r="F14" s="1">
-        <v>-8110.1562</v>
+        <v>-8093.4798</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112204.0111</v>
+        <v>111749.1031</v>
       </c>
       <c r="I14" s="1">
-        <v>2996.1324</v>
+        <v>2989.9352</v>
       </c>
       <c r="J14" s="1">
-        <v>115200.1435</v>
+        <v>114739.0383</v>
       </c>
       <c r="K14" s="1">
-        <v>125783.3367</v>
+        <v>125792.5691</v>
       </c>
       <c r="L14" s="1">
-        <v>15.5094</v>
+        <v>15.5425</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112204.0111</v>
+        <v>111749.1031</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0921</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4451,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.4695</v>
+        <v>15.5006</v>
       </c>
       <c r="D3" s="1">
-        <v>15.4488</v>
+        <v>15.4843</v>
       </c>
       <c r="E3" s="1">
-        <v>15.4779</v>
+        <v>15.5127</v>
       </c>
       <c r="F3" s="1">
-        <v>15.4944</v>
+        <v>15.5274</v>
       </c>
       <c r="G3" s="1">
-        <v>15.5094</v>
+        <v>15.5425</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0856</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0345</v>
+        <v>0.0222</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0325</v>
+        <v>0.0205</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0319</v>
+        <v>0.0199</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0317</v>
+        <v>0.0197</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0315</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,16 +4536,16 @@
         <v>0.1805</v>
       </c>
       <c r="C5" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.203</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.2042</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.2028</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.204</v>
-      </c>
       <c r="F5" s="3">
-        <v>0.2047</v>
+        <v>0.2048</v>
       </c>
       <c r="G5" s="3">
         <v>0.2054</v>
@@ -4559,19 +4559,19 @@
         <v>-0.587</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0693</v>
+        <v>0.0091</v>
       </c>
       <c r="D6" s="4">
-        <v>0.0601</v>
+        <v>0.001</v>
       </c>
       <c r="E6" s="4">
-        <v>0.0567</v>
+        <v>-0.002</v>
       </c>
       <c r="F6" s="4">
-        <v>0.0554</v>
+        <v>-0.003</v>
       </c>
       <c r="G6" s="4">
-        <v>0.0543</v>
+        <v>-0.0041</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0707</v>
+        <v>-0.0779</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0737</v>
+        <v>-0.0809</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0745</v>
+        <v>-0.08160000000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.07489999999999999</v>
+        <v>-0.0819</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0752</v>
+        <v>-0.0822</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>8776.372499999999</v>
+        <v>8758.617099999999</v>
       </c>
       <c r="D8" s="1">
-        <v>8542.357</v>
+        <v>8557.123600000001</v>
       </c>
       <c r="E8" s="1">
-        <v>8663.528700000001</v>
+        <v>8675.1276</v>
       </c>
       <c r="F8" s="1">
-        <v>8725.597900000001</v>
+        <v>8728.5286</v>
       </c>
       <c r="G8" s="1">
-        <v>8779.4691</v>
+        <v>8782.504300000001</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P43_KFSDIV.xlsx
+++ b/output/1Y_P43_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>15.3311</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3637</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6447</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.486</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>16.1958</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.4264</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>17.107</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>16.8894</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>16.4004</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3877</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6367</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0061</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.835</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>15.3311</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3637</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6447</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.486</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>16.1958</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.4264</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>17.107</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>16.8894</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>16.4004</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3877</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6367</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0061</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.835</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>15.3311</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3637</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6447</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.486</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>16.1958</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.4264</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>17.107</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>16.8894</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>16.4004</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3877</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6367</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0061</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.835</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>15.3311</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3637</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6447</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.486</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>16.1958</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.4264</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>17.107</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>16.8894</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>16.4004</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3877</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6367</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0061</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.835</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>15.3311</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3637</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6447</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.486</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>16.1958</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.4264</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>17.107</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>16.8894</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>16.4004</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3877</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6367</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.0061</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.835</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>10519.813</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9167999999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9186</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9169</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9156</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
